--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\RElab\RGM\实验\实验数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wench\Documents\GitHub\multi-modal-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018CC0CD-86A9-48AC-AE22-8E77E220D9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CCEE03-434F-44E0-9E05-073C5AC778EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2424" yWindow="1380" windowWidth="17280" windowHeight="9420" activeTab="3" xr2:uid="{C07FD18A-E3FD-469B-8ABA-9F7549C2C608}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" activeTab="3" xr2:uid="{C07FD18A-E3FD-469B-8ABA-9F7549C2C608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>用户需求覆盖率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,14 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆页面背景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,15 +594,91 @@
     <t>注册页面/登录页面提交响应慢</t>
   </si>
   <si>
-    <t>方差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值4.5的占比</t>
+    <t>The login page background is distracting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The homepage carousel is distracting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The registration page does not prompt for password requirements.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After a failure on the registration page, the form inputs are cleared excessively.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The effective range of the submit button on the registration/login page is small.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The search box on the course page is not prominent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is no feedback when creating a course on the course page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misleading controls (learn/teach) on the course page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The jump button (c1) on the course page is not prominent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bold title on the course details page is misleading.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uploading course materials on the course details page scrolls down a long page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is no feedback when uploading course materials on the course details page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The close button for successfully downloading course materials on the course details page is not prominent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function categorization is unclear on various pages.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selecting course materials is difficult.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The submit response on the registration/login page is slow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The submit response when creating a course on the course page is slow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proportion of value 4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,14 +809,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2545,7 +2622,7 @@
         <v>66</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2777,34 +2854,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>53</v>
       </c>
       <c r="L1" t="s">
@@ -2840,7 +2917,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2930,7 +3007,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3242,7 +3319,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3363,34 +3440,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>53</v>
       </c>
       <c r="L1" t="s">
@@ -3426,7 +3503,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -3594,7 +3671,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4122,7 +4199,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4237,90 +4314,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECA6D7A-01F4-47C6-98F3-D7ED6707C215}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.21875" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" t="s">
-        <v>67</v>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>81</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -4339,9 +4416,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>82</v>
+    <row r="4" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4375,9 +4452,9 @@
         <v>4.2222222222222223</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
+    <row r="5" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4429,9 +4506,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>99</v>
+    <row r="6" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4465,9 +4542,9 @@
         <v>3.5555555555555554</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
+    <row r="7" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4492,9 +4569,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>85</v>
+    <row r="8" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -4510,14 +4587,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>87</v>
+    <row r="9" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -4563,9 +4640,9 @@
         <v>4.6923076923076925</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>88</v>
+    <row r="11" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -4584,9 +4661,9 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>89</v>
+    <row r="12" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -4626,9 +4703,9 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>90</v>
+    <row r="13" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -4647,9 +4724,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>91</v>
+    <row r="14" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -4674,9 +4751,9 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
+    <row r="15" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -4698,9 +4775,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>93</v>
+    <row r="16" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -4719,9 +4796,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>20</v>
+    <row r="17" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -4752,9 +4829,9 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>100</v>
+    <row r="18" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -4764,9 +4841,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>94</v>
+    <row r="19" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4777,8 +4854,8 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>95</v>
+      <c r="A21" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="B21">
         <f>AVERAGE(B2:B19)</f>
@@ -4866,8 +4943,8 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>102</v>
+      <c r="A22" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B22">
         <f>MEDIAN(B2:B19)</f>
@@ -4951,8 +5028,8 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>101</v>
+      <c r="A23" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B23">
         <f>_xlfn.VAR.S(B2:B19)</f>
@@ -5036,8 +5113,8 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>103</v>
+      <c r="A24" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B24">
         <f>(COUNTIF(B2:B19,4) + COUNTIF(B2:B19,5)) / COUNTA(B2:B19)</f>
